--- a/A4/database-09-feb-2018/sa.xlsx
+++ b/A4/database-09-feb-2018/sa.xlsx
@@ -5,15 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Slots" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="BSBE" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="CE" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="CH" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="CL" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="CRT" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="CL" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="CRT" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="EEE" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="HSS" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="PH" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="MA" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="CH" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="DD" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="CSE" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="ME" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="632">
   <si>
     <t xml:space="preserve">Class Timetable (Slots)</t>
   </si>
@@ -985,6 +992,942 @@
   </si>
   <si>
     <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Electronics and Electrical Engineering, IIT Guwahati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Table for Semester II – Jan-May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0800-0855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0900-0955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000-1055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1100-1155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200-1255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1300-1355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1400-1455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500-1555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1600-1655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 230 T (SLK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 525 (RI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 213M (RKS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 648 (ATM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 668 (SLK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 667 (SC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 230 T (SJD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 221 (SS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 203 (RP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 230 (RB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 322M (PG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 340 (KRS/SKN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 360 (RS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 230 T (KD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 636 (KK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 534 (SA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 351 (SM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 230 T (SA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 503 (NN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 663 (SRA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 561 (GT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 645 (HSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 621 (PKB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 230 T (SRA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 652 (CM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 631 (CK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 634 (SG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 653 (SK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 664 (GT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 626 (SD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 270 (RK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 337 (AR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 533 (SJD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 385 (RA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 333 (SKB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 625 (MKB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 580 (PK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 551 (IK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 673 (PT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 221 T (PKB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 647 MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 657 (TJ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 221 T (SD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 642 (KRS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 221 T (AR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 632 (KD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 221 T (SS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 221 T (SK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 646 (SN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of HSS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA 2nd Semester Time Table Jan – May 2018 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-8:55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-10:55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-11:55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-12:55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-2:55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS621 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS 521 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS 503 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS 604 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS 512 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS622 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1101) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1102) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS623 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS 505 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS 502 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS 517 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS 623 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL classes will take place at Room 1101 and Room 1102. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIME TABLE : Jan -May, 2016 Jan-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTMENT OF PHYSICS, IIT GUWAHATI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:00 - 8:55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00 - 9:55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00 - 10:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:00 - 11:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00 - 12:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:00 - 1:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:00 - 2:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:00 - 3:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:00 - 4:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:00 - 5:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1/K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH204 (TM )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH443 (SBS) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH202 (UNM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH304 (SKK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH306(BB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH462(AKS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH414 (PKG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH404(DM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH406(GSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH410(PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH382M (ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH702 (MCK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH703 (UR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH532(KP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH523 (DP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH706 (CYK+GK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH516(UNM+GK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH110 (AP+DP+MCK+PKP+Tanveer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH412 (SOVAN/SC+SN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUESDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH102(T)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS4XX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC,Subh,DB,Sovan,TM,GSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH206(TND)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH443 (SBS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH102(Div I &amp;I I) Free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBD,BRM,PM,BB,PA,Ashmita,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH308 (AKSH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH302(SG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DVA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH408 (PKP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH402(CYK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH704 (PM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH527(AS) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH543(SN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH521 (SB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH531(BRB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH544 (ASIL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH545 (BRM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH412(SOVAN/SC+SN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEDNESDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1/K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSS2XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS4XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH102(Div III &amp; IV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH102(Div I &amp; II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH306(BB) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH414 (PKG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH446 (SBD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH404(DM) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH402(CYK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH702 (MCK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH706 (CYK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH524 (PAMU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH527(AS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH521 (SB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH320 (PAMU+SIDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THURSDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH102(Div III &amp; IV) Free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS2XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH204 (TM )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH304 (SKK) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH302(SG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH408 (PKP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH527(AS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH523 (DP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH543(SN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH210 (SR+TND)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRIDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH102(Div I &amp;I I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH443 (SBS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH410(PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH524 (PAMU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH544 (ASIL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4003(40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B.Tech. VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B.Tech. VIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4004(60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M.Sc. II</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ph.D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4206(95)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B.Tech. IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4212(75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M.Sc. IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class Exam Time Table (Jan -May 2018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparatory Mathematics-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Anupam Saikia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathematics-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See Common TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division I &amp; II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division III &amp; IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Organization and Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See CSE TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Structures and Algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Engineering-I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSS Elective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See HSS TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA 212M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathematical Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monte Carlo Simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Structures Lab with OOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Databases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formal Languages and Automata Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Engineering-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA312M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern Algebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Databases Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Networks Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Engineering Laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computational Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having Lab unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Risk Management and Modelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Tech. Only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algebraic Coding Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluid Dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithms for Wireless Ad Hoc and Sensor Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galois Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator Theory in Hilbert Spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differential Topology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEM for PDEs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martingales and Brownian Motion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Statistical Algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel Computing Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL-3 (2-3:55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computational Finance Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differential Equations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimization Techniques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Structures and Algorithms Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerical Linear Algebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerics of PDEs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complexity Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.Sc. Only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algebraic Topology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL-3(2-3:55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerical Linear Algebra Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL-2 (3-4:55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerics of PDEs Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Algebra-I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Analysis-I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also to M.Sc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fourier Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potential Flow of Fluids and Water-wave Theory</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +2056,7 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -1368,6 +2311,110 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2688,7 +3735,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2698,7 +3745,949 @@
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>4002</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>4002</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>4209</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>4209</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>4209</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>4209</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>4209</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>4209</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>4209</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>4209</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>4002</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>4002</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>4209</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>4002</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>4002</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2714,10 +4703,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2726,944 +4715,170 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="1" t="s">
-        <v>204</v>
+      <c r="C1" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="A2" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>4203</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4203</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>4203</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>4002</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>4203</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>4203</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>4203</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>4203</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>4002</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>4209</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>4209</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>4209</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>4209</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>4203</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>4209</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>4209</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>4209</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>4209</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>4002</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>4002</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>4209</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>4002</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>4203</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>4002</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>4203</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>268</v>
+      <c r="D10" s="0" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3682,10 +4897,734 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="16.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="n">
+        <v>2201</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="n">
+        <v>2202</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>3101</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="n">
+        <v>4101</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="n">
+        <v>3202</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="n">
+        <v>2101</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="n">
+        <v>2201</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="n">
+        <v>2202</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="n">
+        <v>3101</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>4101</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="n">
+        <v>3202</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="n">
+        <v>2101</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>2201</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="n">
+        <v>2202</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="n">
+        <v>3101</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="n">
+        <v>4101</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="n">
+        <v>2201</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>2202</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="n">
+        <v>3101</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="n">
+        <v>4101</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="n">
+        <v>2201</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>2202</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="n">
+        <v>3101</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="n">
+        <v>4101</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="n">
+        <v>3202</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="n">
+        <v>2101</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3695,169 +5634,2033 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="1" t="s">
-        <v>290</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>294</v>
+      <c r="C2" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K48"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.51"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I33" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H39" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E70"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>295</v>
+        <v>511</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>296</v>
+        <v>512</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>304</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>305</v>
+        <v>514</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>306</v>
+        <v>516</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>313</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B5" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="B8" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>2203</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>2203</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>2203</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>2203</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>2203</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>1103</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>315</v>
+      <c r="B67" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
